--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H2">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I2">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J2">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>19.038761</v>
       </c>
       <c r="O2">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P2">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q2">
-        <v>125.1534383518214</v>
+        <v>23.38916231227567</v>
       </c>
       <c r="R2">
-        <v>1126.380945166393</v>
+        <v>210.502460810481</v>
       </c>
       <c r="S2">
-        <v>0.757237706174954</v>
+        <v>0.3304967890330877</v>
       </c>
       <c r="T2">
-        <v>0.7572377061749542</v>
+        <v>0.3304967890330877</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H3">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I3">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J3">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N3">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O3">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P3">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q3">
-        <v>7.335507397969556</v>
+        <v>1.986249943547333</v>
       </c>
       <c r="R3">
-        <v>66.019566581726</v>
+        <v>17.876249491926</v>
       </c>
       <c r="S3">
-        <v>0.04438330156022462</v>
+        <v>0.02806638475525956</v>
       </c>
       <c r="T3">
-        <v>0.04438330156022462</v>
+        <v>0.02806638475525956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.297477</v>
       </c>
       <c r="I4">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J4">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>19.038761</v>
       </c>
       <c r="O4">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P4">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q4">
         <v>0.629288167333</v>
@@ -694,10 +694,10 @@
         <v>5.663593505997</v>
       </c>
       <c r="S4">
-        <v>0.00380749210432976</v>
+        <v>0.008892055042557764</v>
       </c>
       <c r="T4">
-        <v>0.003807492104329761</v>
+        <v>0.008892055042557766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.297477</v>
       </c>
       <c r="I5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N5">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O5">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P5">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q5">
-        <v>0.036883908806</v>
+        <v>0.053440288718</v>
       </c>
       <c r="R5">
-        <v>0.331955179254</v>
+        <v>0.480962598462</v>
       </c>
       <c r="S5">
-        <v>0.0002231651552433369</v>
+        <v>0.0007551293881538641</v>
       </c>
       <c r="T5">
-        <v>0.0002231651552433369</v>
+        <v>0.0007551293881538641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H6">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I6">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J6">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>19.038761</v>
       </c>
       <c r="O6">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P6">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q6">
-        <v>30.342720723574</v>
+        <v>41.21179072213233</v>
       </c>
       <c r="R6">
-        <v>273.084486512166</v>
+        <v>370.906116499191</v>
       </c>
       <c r="S6">
-        <v>0.1835878625662386</v>
+        <v>0.5823365677709527</v>
       </c>
       <c r="T6">
-        <v>0.1835878625662387</v>
+        <v>0.5823365677709526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H7">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I7">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J7">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N7">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O7">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P7">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q7">
-        <v>1.778450958068</v>
+        <v>3.499779765620667</v>
       </c>
       <c r="R7">
-        <v>16.006058622612</v>
+        <v>31.498017890586</v>
       </c>
       <c r="S7">
-        <v>0.0107604724390096</v>
+        <v>0.04945307400998852</v>
       </c>
       <c r="T7">
-        <v>0.0107604724390096</v>
+        <v>0.0494530740099885</v>
       </c>
     </row>
   </sheetData>
